--- a/Analysis/Virome/stat_result/Chemostat/alpha_diversity_substrate_deduct_media.xlsx
+++ b/Analysis/Virome/stat_result/Chemostat/alpha_diversity_substrate_deduct_media.xlsx
@@ -352,7 +352,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:N22"/>
+  <dimension ref="A1:N29"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -478,7 +478,7 @@
         </is>
       </c>
       <c r="M2">
-        <v>0.092</v>
+        <v>0.08</v>
       </c>
       <c r="N2" t="inlineStr">
         <is>
@@ -534,7 +534,7 @@
         </is>
       </c>
       <c r="M3">
-        <v>0.171</v>
+        <v>0.152</v>
       </c>
       <c r="N3" t="inlineStr">
         <is>
@@ -590,11 +590,11 @@
         </is>
       </c>
       <c r="M4">
-        <v>0.05</v>
+        <v>0.042</v>
       </c>
       <c r="N4" t="inlineStr">
         <is>
-          <t>ns</t>
+          <t>*</t>
         </is>
       </c>
     </row>
@@ -646,11 +646,11 @@
         </is>
       </c>
       <c r="M5">
-        <v>0.05</v>
+        <v>0.042</v>
       </c>
       <c r="N5" t="inlineStr">
         <is>
-          <t>ns</t>
+          <t>*</t>
         </is>
       </c>
     </row>
@@ -702,11 +702,11 @@
         </is>
       </c>
       <c r="M6">
-        <v>0.05</v>
+        <v>0.042</v>
       </c>
       <c r="N6" t="inlineStr">
         <is>
-          <t>ns</t>
+          <t>*</t>
         </is>
       </c>
     </row>
@@ -758,17 +758,17 @@
         </is>
       </c>
       <c r="M7">
-        <v>0.05</v>
+        <v>0.042</v>
       </c>
       <c r="N7" t="inlineStr">
         <is>
-          <t>ns</t>
+          <t>*</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8">
-        <v>-8</v>
+        <v>-258.5</v>
       </c>
       <c r="B8" t="inlineStr">
         <is>
@@ -777,12 +777,12 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>Batch2</t>
+          <t>Batch1</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>Batch3</t>
+          <t>Inoculum</t>
         </is>
       </c>
       <c r="E8">
@@ -792,16 +792,16 @@
         <v>4</v>
       </c>
       <c r="G8">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="H8">
-        <v>0.886</v>
+        <v>0.029</v>
       </c>
       <c r="I8">
-        <v>-152</v>
+        <v>-357</v>
       </c>
       <c r="J8">
-        <v>173</v>
+        <v>-131</v>
       </c>
       <c r="K8" t="inlineStr">
         <is>
@@ -814,17 +814,17 @@
         </is>
       </c>
       <c r="M8">
-        <v>0.93</v>
+        <v>0.042</v>
       </c>
       <c r="N8" t="inlineStr">
         <is>
-          <t>ns</t>
+          <t>*</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9">
-        <v>227</v>
+        <v>-8</v>
       </c>
       <c r="B9" t="inlineStr">
         <is>
@@ -838,7 +838,7 @@
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>Chemostat1</t>
+          <t>Batch3</t>
         </is>
       </c>
       <c r="E9">
@@ -848,16 +848,16 @@
         <v>4</v>
       </c>
       <c r="G9">
-        <v>16</v>
+        <v>7</v>
       </c>
       <c r="H9">
-        <v>0.029</v>
+        <v>0.886</v>
       </c>
       <c r="I9">
-        <v>176</v>
+        <v>-152</v>
       </c>
       <c r="J9">
-        <v>455</v>
+        <v>173</v>
       </c>
       <c r="K9" t="inlineStr">
         <is>
@@ -870,7 +870,7 @@
         </is>
       </c>
       <c r="M9">
-        <v>0.05</v>
+        <v>0.919</v>
       </c>
       <c r="N9" t="inlineStr">
         <is>
@@ -880,7 +880,7 @@
     </row>
     <row r="10">
       <c r="A10">
-        <v>282</v>
+        <v>227</v>
       </c>
       <c r="B10" t="inlineStr">
         <is>
@@ -894,7 +894,7 @@
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>Chemostat2</t>
+          <t>Chemostat1</t>
         </is>
       </c>
       <c r="E10">
@@ -910,10 +910,10 @@
         <v>0.029</v>
       </c>
       <c r="I10">
-        <v>218</v>
+        <v>176</v>
       </c>
       <c r="J10">
-        <v>416</v>
+        <v>455</v>
       </c>
       <c r="K10" t="inlineStr">
         <is>
@@ -926,17 +926,17 @@
         </is>
       </c>
       <c r="M10">
-        <v>0.05</v>
+        <v>0.042</v>
       </c>
       <c r="N10" t="inlineStr">
         <is>
-          <t>ns</t>
+          <t>*</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11">
-        <v>266.5</v>
+        <v>282</v>
       </c>
       <c r="B11" t="inlineStr">
         <is>
@@ -950,7 +950,7 @@
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>Chemostat3</t>
+          <t>Chemostat2</t>
         </is>
       </c>
       <c r="E11">
@@ -966,10 +966,10 @@
         <v>0.029</v>
       </c>
       <c r="I11">
-        <v>237</v>
+        <v>218</v>
       </c>
       <c r="J11">
-        <v>390</v>
+        <v>416</v>
       </c>
       <c r="K11" t="inlineStr">
         <is>
@@ -982,17 +982,17 @@
         </is>
       </c>
       <c r="M11">
-        <v>0.05</v>
+        <v>0.042</v>
       </c>
       <c r="N11" t="inlineStr">
         <is>
-          <t>ns</t>
+          <t>*</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12">
-        <v>278</v>
+        <v>266.5</v>
       </c>
       <c r="B12" t="inlineStr">
         <is>
@@ -1006,7 +1006,7 @@
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>Chemostat4</t>
+          <t>Chemostat3</t>
         </is>
       </c>
       <c r="E12">
@@ -1022,10 +1022,10 @@
         <v>0.029</v>
       </c>
       <c r="I12">
-        <v>232</v>
+        <v>237</v>
       </c>
       <c r="J12">
-        <v>429</v>
+        <v>390</v>
       </c>
       <c r="K12" t="inlineStr">
         <is>
@@ -1038,17 +1038,17 @@
         </is>
       </c>
       <c r="M12">
-        <v>0.05</v>
+        <v>0.042</v>
       </c>
       <c r="N12" t="inlineStr">
         <is>
-          <t>ns</t>
+          <t>*</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13">
-        <v>311.5</v>
+        <v>278</v>
       </c>
       <c r="B13" t="inlineStr">
         <is>
@@ -1057,12 +1057,12 @@
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>Batch3</t>
+          <t>Batch2</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>Chemostat1</t>
+          <t>Chemostat4</t>
         </is>
       </c>
       <c r="E13">
@@ -1078,10 +1078,10 @@
         <v>0.029</v>
       </c>
       <c r="I13">
-        <v>142</v>
+        <v>232</v>
       </c>
       <c r="J13">
-        <v>468</v>
+        <v>429</v>
       </c>
       <c r="K13" t="inlineStr">
         <is>
@@ -1094,17 +1094,17 @@
         </is>
       </c>
       <c r="M13">
-        <v>0.05</v>
+        <v>0.042</v>
       </c>
       <c r="N13" t="inlineStr">
         <is>
-          <t>ns</t>
+          <t>*</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14">
-        <v>320.5</v>
+        <v>-389</v>
       </c>
       <c r="B14" t="inlineStr">
         <is>
@@ -1113,12 +1113,12 @@
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>Batch3</t>
+          <t>Batch2</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>Chemostat2</t>
+          <t>Inoculum</t>
         </is>
       </c>
       <c r="E14">
@@ -1128,16 +1128,16 @@
         <v>4</v>
       </c>
       <c r="G14">
-        <v>16</v>
+        <v>0</v>
       </c>
       <c r="H14">
         <v>0.029</v>
       </c>
       <c r="I14">
-        <v>184</v>
+        <v>-458</v>
       </c>
       <c r="J14">
-        <v>429</v>
+        <v>-185</v>
       </c>
       <c r="K14" t="inlineStr">
         <is>
@@ -1150,17 +1150,17 @@
         </is>
       </c>
       <c r="M14">
-        <v>0.05</v>
+        <v>0.042</v>
       </c>
       <c r="N14" t="inlineStr">
         <is>
-          <t>ns</t>
+          <t>*</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15">
-        <v>317</v>
+        <v>311.5</v>
       </c>
       <c r="B15" t="inlineStr">
         <is>
@@ -1174,7 +1174,7 @@
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>Chemostat3</t>
+          <t>Chemostat1</t>
         </is>
       </c>
       <c r="E15">
@@ -1190,10 +1190,10 @@
         <v>0.029</v>
       </c>
       <c r="I15">
-        <v>203</v>
+        <v>142</v>
       </c>
       <c r="J15">
-        <v>403</v>
+        <v>468</v>
       </c>
       <c r="K15" t="inlineStr">
         <is>
@@ -1206,17 +1206,17 @@
         </is>
       </c>
       <c r="M15">
-        <v>0.05</v>
+        <v>0.042</v>
       </c>
       <c r="N15" t="inlineStr">
         <is>
-          <t>ns</t>
+          <t>*</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16">
-        <v>334</v>
+        <v>320.5</v>
       </c>
       <c r="B16" t="inlineStr">
         <is>
@@ -1230,7 +1230,7 @@
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>Chemostat4</t>
+          <t>Chemostat2</t>
         </is>
       </c>
       <c r="E16">
@@ -1246,10 +1246,10 @@
         <v>0.029</v>
       </c>
       <c r="I16">
-        <v>198</v>
+        <v>184</v>
       </c>
       <c r="J16">
-        <v>442</v>
+        <v>429</v>
       </c>
       <c r="K16" t="inlineStr">
         <is>
@@ -1262,17 +1262,17 @@
         </is>
       </c>
       <c r="M16">
-        <v>0.05</v>
+        <v>0.042</v>
       </c>
       <c r="N16" t="inlineStr">
         <is>
-          <t>ns</t>
+          <t>*</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17">
-        <v>49.5</v>
+        <v>317</v>
       </c>
       <c r="B17" t="inlineStr">
         <is>
@@ -1281,12 +1281,12 @@
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>Chemostat1</t>
+          <t>Batch3</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>Chemostat2</t>
+          <t>Chemostat3</t>
         </is>
       </c>
       <c r="E17">
@@ -1296,16 +1296,16 @@
         <v>4</v>
       </c>
       <c r="G17">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="H17">
-        <v>0.343</v>
+        <v>0.029</v>
       </c>
       <c r="I17">
-        <v>-98</v>
+        <v>203</v>
       </c>
       <c r="J17">
-        <v>101</v>
+        <v>403</v>
       </c>
       <c r="K17" t="inlineStr">
         <is>
@@ -1318,17 +1318,17 @@
         </is>
       </c>
       <c r="M17">
-        <v>0.424</v>
+        <v>0.042</v>
       </c>
       <c r="N17" t="inlineStr">
         <is>
-          <t>ns</t>
+          <t>*</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18">
-        <v>42.5</v>
+        <v>334</v>
       </c>
       <c r="B18" t="inlineStr">
         <is>
@@ -1337,12 +1337,12 @@
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>Chemostat1</t>
+          <t>Batch3</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>Chemostat3</t>
+          <t>Chemostat4</t>
         </is>
       </c>
       <c r="E18">
@@ -1352,16 +1352,16 @@
         <v>4</v>
       </c>
       <c r="G18">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="H18">
-        <v>0.343</v>
+        <v>0.029</v>
       </c>
       <c r="I18">
-        <v>-79</v>
+        <v>198</v>
       </c>
       <c r="J18">
-        <v>75</v>
+        <v>442</v>
       </c>
       <c r="K18" t="inlineStr">
         <is>
@@ -1374,17 +1374,17 @@
         </is>
       </c>
       <c r="M18">
-        <v>0.424</v>
+        <v>0.042</v>
       </c>
       <c r="N18" t="inlineStr">
         <is>
-          <t>ns</t>
+          <t>*</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19">
-        <v>49</v>
+        <v>-325.5</v>
       </c>
       <c r="B19" t="inlineStr">
         <is>
@@ -1393,12 +1393,12 @@
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>Chemostat1</t>
+          <t>Batch3</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>Chemostat4</t>
+          <t>Inoculum</t>
         </is>
       </c>
       <c r="E19">
@@ -1408,16 +1408,16 @@
         <v>4</v>
       </c>
       <c r="G19">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="H19">
-        <v>0.343</v>
+        <v>0.029</v>
       </c>
       <c r="I19">
-        <v>-84</v>
+        <v>-492</v>
       </c>
       <c r="J19">
-        <v>114</v>
+        <v>-172</v>
       </c>
       <c r="K19" t="inlineStr">
         <is>
@@ -1430,17 +1430,17 @@
         </is>
       </c>
       <c r="M19">
-        <v>0.424</v>
+        <v>0.042</v>
       </c>
       <c r="N19" t="inlineStr">
         <is>
-          <t>ns</t>
+          <t>*</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20">
-        <v>-16.51578359747027</v>
+        <v>49.5</v>
       </c>
       <c r="B20" t="inlineStr">
         <is>
@@ -1449,14 +1449,14 @@
       </c>
       <c r="C20" t="inlineStr">
         <is>
+          <t>Chemostat1</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
           <t>Chemostat2</t>
         </is>
       </c>
-      <c r="D20" t="inlineStr">
-        <is>
-          <t>Chemostat3</t>
-        </is>
-      </c>
       <c r="E20">
         <v>4</v>
       </c>
@@ -1464,16 +1464,16 @@
         <v>4</v>
       </c>
       <c r="G20">
-        <v>4.5</v>
+        <v>12</v>
       </c>
       <c r="H20">
-        <v>0.384</v>
+        <v>0.343</v>
       </c>
       <c r="I20">
-        <v>-40</v>
+        <v>-98</v>
       </c>
       <c r="J20">
-        <v>33</v>
+        <v>101</v>
       </c>
       <c r="K20" t="inlineStr">
         <is>
@@ -1486,7 +1486,7 @@
         </is>
       </c>
       <c r="M20">
-        <v>0.448</v>
+        <v>0.4</v>
       </c>
       <c r="N20" t="inlineStr">
         <is>
@@ -1496,7 +1496,7 @@
     </row>
     <row r="21">
       <c r="A21">
-        <v>-0.5</v>
+        <v>42.5</v>
       </c>
       <c r="B21" t="inlineStr">
         <is>
@@ -1505,12 +1505,12 @@
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>Chemostat2</t>
+          <t>Chemostat1</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>Chemostat4</t>
+          <t>Chemostat3</t>
         </is>
       </c>
       <c r="E21">
@@ -1520,16 +1520,16 @@
         <v>4</v>
       </c>
       <c r="G21">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="H21">
-        <v>1</v>
+        <v>0.343</v>
       </c>
       <c r="I21">
-        <v>-45</v>
+        <v>-79</v>
       </c>
       <c r="J21">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="K21" t="inlineStr">
         <is>
@@ -1542,7 +1542,7 @@
         </is>
       </c>
       <c r="M21">
-        <v>1</v>
+        <v>0.4</v>
       </c>
       <c r="N21" t="inlineStr">
         <is>
@@ -1552,57 +1552,449 @@
     </row>
     <row r="22">
       <c r="A22">
+        <v>49</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>Abundance</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>Chemostat1</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>Chemostat4</t>
+        </is>
+      </c>
+      <c r="E22">
+        <v>4</v>
+      </c>
+      <c r="F22">
+        <v>4</v>
+      </c>
+      <c r="G22">
+        <v>12</v>
+      </c>
+      <c r="H22">
+        <v>0.343</v>
+      </c>
+      <c r="I22">
+        <v>-84</v>
+      </c>
+      <c r="J22">
+        <v>114</v>
+      </c>
+      <c r="K22" t="inlineStr">
+        <is>
+          <t>Wilcoxon</t>
+        </is>
+      </c>
+      <c r="L22" t="inlineStr">
+        <is>
+          <t>two.sided</t>
+        </is>
+      </c>
+      <c r="M22">
+        <v>0.4</v>
+      </c>
+      <c r="N22" t="inlineStr">
+        <is>
+          <t>ns</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23">
+        <v>-637</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>Abundance</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>Chemostat1</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>Inoculum</t>
+        </is>
+      </c>
+      <c r="E23">
+        <v>4</v>
+      </c>
+      <c r="F23">
+        <v>4</v>
+      </c>
+      <c r="G23">
+        <v>0</v>
+      </c>
+      <c r="H23">
+        <v>0.029</v>
+      </c>
+      <c r="I23">
+        <v>-774</v>
+      </c>
+      <c r="J23">
+        <v>-500</v>
+      </c>
+      <c r="K23" t="inlineStr">
+        <is>
+          <t>Wilcoxon</t>
+        </is>
+      </c>
+      <c r="L23" t="inlineStr">
+        <is>
+          <t>two.sided</t>
+        </is>
+      </c>
+      <c r="M23">
+        <v>0.042</v>
+      </c>
+      <c r="N23" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24">
+        <v>-16.51578359747027</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>Abundance</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>Chemostat2</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>Chemostat3</t>
+        </is>
+      </c>
+      <c r="E24">
+        <v>4</v>
+      </c>
+      <c r="F24">
+        <v>4</v>
+      </c>
+      <c r="G24">
+        <v>4.5</v>
+      </c>
+      <c r="H24">
+        <v>0.384</v>
+      </c>
+      <c r="I24">
+        <v>-40</v>
+      </c>
+      <c r="J24">
+        <v>33</v>
+      </c>
+      <c r="K24" t="inlineStr">
+        <is>
+          <t>Wilcoxon</t>
+        </is>
+      </c>
+      <c r="L24" t="inlineStr">
+        <is>
+          <t>two.sided</t>
+        </is>
+      </c>
+      <c r="M24">
+        <v>0.43</v>
+      </c>
+      <c r="N24" t="inlineStr">
+        <is>
+          <t>ns</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25">
+        <v>-0.5</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>Abundance</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>Chemostat2</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>Chemostat4</t>
+        </is>
+      </c>
+      <c r="E25">
+        <v>4</v>
+      </c>
+      <c r="F25">
+        <v>4</v>
+      </c>
+      <c r="G25">
+        <v>8</v>
+      </c>
+      <c r="H25">
+        <v>1</v>
+      </c>
+      <c r="I25">
+        <v>-45</v>
+      </c>
+      <c r="J25">
+        <v>72</v>
+      </c>
+      <c r="K25" t="inlineStr">
+        <is>
+          <t>Wilcoxon</t>
+        </is>
+      </c>
+      <c r="L25" t="inlineStr">
+        <is>
+          <t>two.sided</t>
+        </is>
+      </c>
+      <c r="M25">
+        <v>1</v>
+      </c>
+      <c r="N25" t="inlineStr">
+        <is>
+          <t>ns</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26">
+        <v>-677</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>Abundance</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>Chemostat2</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>Inoculum</t>
+        </is>
+      </c>
+      <c r="E26">
+        <v>4</v>
+      </c>
+      <c r="F26">
+        <v>4</v>
+      </c>
+      <c r="G26">
+        <v>0</v>
+      </c>
+      <c r="H26">
+        <v>0.029</v>
+      </c>
+      <c r="I26">
+        <v>-735</v>
+      </c>
+      <c r="J26">
+        <v>-542</v>
+      </c>
+      <c r="K26" t="inlineStr">
+        <is>
+          <t>Wilcoxon</t>
+        </is>
+      </c>
+      <c r="L26" t="inlineStr">
+        <is>
+          <t>two.sided</t>
+        </is>
+      </c>
+      <c r="M26">
+        <v>0.042</v>
+      </c>
+      <c r="N26" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27">
         <v>6.5</v>
       </c>
-      <c r="B22" t="inlineStr">
-        <is>
-          <t>Abundance</t>
-        </is>
-      </c>
-      <c r="C22" t="inlineStr">
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>Abundance</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
         <is>
           <t>Chemostat3</t>
         </is>
       </c>
-      <c r="D22" t="inlineStr">
+      <c r="D27" t="inlineStr">
         <is>
           <t>Chemostat4</t>
         </is>
       </c>
-      <c r="E22">
-        <v>4</v>
-      </c>
-      <c r="F22">
-        <v>4</v>
-      </c>
-      <c r="G22">
+      <c r="E27">
+        <v>4</v>
+      </c>
+      <c r="F27">
+        <v>4</v>
+      </c>
+      <c r="G27">
         <v>9</v>
       </c>
-      <c r="H22">
+      <c r="H27">
         <v>0.886</v>
       </c>
-      <c r="I22">
+      <c r="I27">
         <v>-19</v>
       </c>
-      <c r="J22">
+      <c r="J27">
         <v>53</v>
       </c>
-      <c r="K22" t="inlineStr">
-        <is>
-          <t>Wilcoxon</t>
-        </is>
-      </c>
-      <c r="L22" t="inlineStr">
-        <is>
-          <t>two.sided</t>
-        </is>
-      </c>
-      <c r="M22">
-        <v>0.93</v>
-      </c>
-      <c r="N22" t="inlineStr">
+      <c r="K27" t="inlineStr">
+        <is>
+          <t>Wilcoxon</t>
+        </is>
+      </c>
+      <c r="L27" t="inlineStr">
+        <is>
+          <t>two.sided</t>
+        </is>
+      </c>
+      <c r="M27">
+        <v>0.919</v>
+      </c>
+      <c r="N27" t="inlineStr">
         <is>
           <t>ns</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28">
+        <v>-670.5</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>Abundance</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>Chemostat3</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>Inoculum</t>
+        </is>
+      </c>
+      <c r="E28">
+        <v>4</v>
+      </c>
+      <c r="F28">
+        <v>4</v>
+      </c>
+      <c r="G28">
+        <v>0</v>
+      </c>
+      <c r="H28">
+        <v>0.029</v>
+      </c>
+      <c r="I28">
+        <v>-709</v>
+      </c>
+      <c r="J28">
+        <v>-561</v>
+      </c>
+      <c r="K28" t="inlineStr">
+        <is>
+          <t>Wilcoxon</t>
+        </is>
+      </c>
+      <c r="L28" t="inlineStr">
+        <is>
+          <t>two.sided</t>
+        </is>
+      </c>
+      <c r="M28">
+        <v>0.042</v>
+      </c>
+      <c r="N28" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29">
+        <v>-682</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>Abundance</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>Chemostat4</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>Inoculum</t>
+        </is>
+      </c>
+      <c r="E29">
+        <v>4</v>
+      </c>
+      <c r="F29">
+        <v>4</v>
+      </c>
+      <c r="G29">
+        <v>0</v>
+      </c>
+      <c r="H29">
+        <v>0.029</v>
+      </c>
+      <c r="I29">
+        <v>-748</v>
+      </c>
+      <c r="J29">
+        <v>-556</v>
+      </c>
+      <c r="K29" t="inlineStr">
+        <is>
+          <t>Wilcoxon</t>
+        </is>
+      </c>
+      <c r="L29" t="inlineStr">
+        <is>
+          <t>two.sided</t>
+        </is>
+      </c>
+      <c r="M29">
+        <v>0.042</v>
+      </c>
+      <c r="N29" t="inlineStr">
+        <is>
+          <t>*</t>
         </is>
       </c>
     </row>
@@ -1613,7 +2005,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:N22"/>
+  <dimension ref="A1:N29"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1739,7 +2131,7 @@
         </is>
       </c>
       <c r="M2">
-        <v>0.583</v>
+        <v>0.491</v>
       </c>
       <c r="N2" t="inlineStr">
         <is>
@@ -1795,7 +2187,7 @@
         </is>
       </c>
       <c r="M3">
-        <v>0.583</v>
+        <v>0.491</v>
       </c>
       <c r="N3" t="inlineStr">
         <is>
@@ -1851,7 +2243,7 @@
         </is>
       </c>
       <c r="M4">
-        <v>0.583</v>
+        <v>0.491</v>
       </c>
       <c r="N4" t="inlineStr">
         <is>
@@ -1907,7 +2299,7 @@
         </is>
       </c>
       <c r="M5">
-        <v>0.583</v>
+        <v>0.491</v>
       </c>
       <c r="N5" t="inlineStr">
         <is>
@@ -1963,7 +2355,7 @@
         </is>
       </c>
       <c r="M6">
-        <v>0.583</v>
+        <v>0.491</v>
       </c>
       <c r="N6" t="inlineStr">
         <is>
@@ -2019,7 +2411,7 @@
         </is>
       </c>
       <c r="M7">
-        <v>0.583</v>
+        <v>0.491</v>
       </c>
       <c r="N7" t="inlineStr">
         <is>
@@ -2029,7 +2421,7 @@
     </row>
     <row r="8">
       <c r="A8">
-        <v>171.5</v>
+        <v>-217</v>
       </c>
       <c r="B8" t="inlineStr">
         <is>
@@ -2038,12 +2430,12 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>Batch2</t>
+          <t>Batch1</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>Batch3</t>
+          <t>Inoculum</t>
         </is>
       </c>
       <c r="E8">
@@ -2053,16 +2445,16 @@
         <v>2</v>
       </c>
       <c r="G8">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H8">
-        <v>1</v>
+        <v>0.333</v>
       </c>
       <c r="I8">
-        <v>-84</v>
+        <v>-276</v>
       </c>
       <c r="J8">
-        <v>427</v>
+        <v>-158</v>
       </c>
       <c r="K8" t="inlineStr">
         <is>
@@ -2075,7 +2467,7 @@
         </is>
       </c>
       <c r="M8">
-        <v>1</v>
+        <v>0.491</v>
       </c>
       <c r="N8" t="inlineStr">
         <is>
@@ -2085,7 +2477,7 @@
     </row>
     <row r="9">
       <c r="A9">
-        <v>-5</v>
+        <v>171.5</v>
       </c>
       <c r="B9" t="inlineStr">
         <is>
@@ -2099,7 +2491,7 @@
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>Chemostat1</t>
+          <t>Batch3</t>
         </is>
       </c>
       <c r="E9">
@@ -2115,10 +2507,10 @@
         <v>1</v>
       </c>
       <c r="I9">
-        <v>-16</v>
+        <v>-84</v>
       </c>
       <c r="J9">
-        <v>6</v>
+        <v>427</v>
       </c>
       <c r="K9" t="inlineStr">
         <is>
@@ -2141,7 +2533,7 @@
     </row>
     <row r="10">
       <c r="A10">
-        <v>315.5</v>
+        <v>-5</v>
       </c>
       <c r="B10" t="inlineStr">
         <is>
@@ -2155,7 +2547,7 @@
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>Chemostat2</t>
+          <t>Chemostat1</t>
         </is>
       </c>
       <c r="E10">
@@ -2165,16 +2557,16 @@
         <v>2</v>
       </c>
       <c r="G10">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="H10">
-        <v>0.333</v>
+        <v>1</v>
       </c>
       <c r="I10">
-        <v>288</v>
+        <v>-16</v>
       </c>
       <c r="J10">
-        <v>343</v>
+        <v>6</v>
       </c>
       <c r="K10" t="inlineStr">
         <is>
@@ -2187,7 +2579,7 @@
         </is>
       </c>
       <c r="M10">
-        <v>0.583</v>
+        <v>1</v>
       </c>
       <c r="N10" t="inlineStr">
         <is>
@@ -2197,7 +2589,7 @@
     </row>
     <row r="11">
       <c r="A11">
-        <v>273</v>
+        <v>315.5</v>
       </c>
       <c r="B11" t="inlineStr">
         <is>
@@ -2211,7 +2603,7 @@
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>Chemostat3</t>
+          <t>Chemostat2</t>
         </is>
       </c>
       <c r="E11">
@@ -2227,10 +2619,10 @@
         <v>0.333</v>
       </c>
       <c r="I11">
-        <v>233</v>
+        <v>288</v>
       </c>
       <c r="J11">
-        <v>313</v>
+        <v>343</v>
       </c>
       <c r="K11" t="inlineStr">
         <is>
@@ -2243,7 +2635,7 @@
         </is>
       </c>
       <c r="M11">
-        <v>0.583</v>
+        <v>0.491</v>
       </c>
       <c r="N11" t="inlineStr">
         <is>
@@ -2253,7 +2645,7 @@
     </row>
     <row r="12">
       <c r="A12">
-        <v>286</v>
+        <v>273</v>
       </c>
       <c r="B12" t="inlineStr">
         <is>
@@ -2267,7 +2659,7 @@
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>Chemostat4</t>
+          <t>Chemostat3</t>
         </is>
       </c>
       <c r="E12">
@@ -2283,10 +2675,10 @@
         <v>0.333</v>
       </c>
       <c r="I12">
-        <v>244</v>
+        <v>233</v>
       </c>
       <c r="J12">
-        <v>328</v>
+        <v>313</v>
       </c>
       <c r="K12" t="inlineStr">
         <is>
@@ -2299,7 +2691,7 @@
         </is>
       </c>
       <c r="M12">
-        <v>0.583</v>
+        <v>0.491</v>
       </c>
       <c r="N12" t="inlineStr">
         <is>
@@ -2309,7 +2701,7 @@
     </row>
     <row r="13">
       <c r="A13">
-        <v>-176.5</v>
+        <v>286</v>
       </c>
       <c r="B13" t="inlineStr">
         <is>
@@ -2318,12 +2710,12 @@
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>Batch3</t>
+          <t>Batch2</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>Chemostat1</t>
+          <t>Chemostat4</t>
         </is>
       </c>
       <c r="E13">
@@ -2333,16 +2725,16 @@
         <v>2</v>
       </c>
       <c r="G13">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="H13">
-        <v>1</v>
+        <v>0.333</v>
       </c>
       <c r="I13">
-        <v>-422</v>
+        <v>244</v>
       </c>
       <c r="J13">
-        <v>69</v>
+        <v>328</v>
       </c>
       <c r="K13" t="inlineStr">
         <is>
@@ -2355,7 +2747,7 @@
         </is>
       </c>
       <c r="M13">
-        <v>1</v>
+        <v>0.491</v>
       </c>
       <c r="N13" t="inlineStr">
         <is>
@@ -2365,7 +2757,7 @@
     </row>
     <row r="14">
       <c r="A14">
-        <v>144</v>
+        <v>-492.5</v>
       </c>
       <c r="B14" t="inlineStr">
         <is>
@@ -2374,12 +2766,12 @@
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>Batch3</t>
+          <t>Batch2</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>Chemostat2</t>
+          <t>Inoculum</t>
         </is>
       </c>
       <c r="E14">
@@ -2389,16 +2781,16 @@
         <v>2</v>
       </c>
       <c r="G14">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H14">
-        <v>1</v>
+        <v>0.333</v>
       </c>
       <c r="I14">
-        <v>-118</v>
+        <v>-536</v>
       </c>
       <c r="J14">
-        <v>406</v>
+        <v>-449</v>
       </c>
       <c r="K14" t="inlineStr">
         <is>
@@ -2411,7 +2803,7 @@
         </is>
       </c>
       <c r="M14">
-        <v>1</v>
+        <v>0.491</v>
       </c>
       <c r="N14" t="inlineStr">
         <is>
@@ -2421,7 +2813,7 @@
     </row>
     <row r="15">
       <c r="A15">
-        <v>101.5</v>
+        <v>-176.5</v>
       </c>
       <c r="B15" t="inlineStr">
         <is>
@@ -2435,7 +2827,7 @@
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>Chemostat3</t>
+          <t>Chemostat1</t>
         </is>
       </c>
       <c r="E15">
@@ -2451,10 +2843,10 @@
         <v>1</v>
       </c>
       <c r="I15">
-        <v>-173</v>
+        <v>-422</v>
       </c>
       <c r="J15">
-        <v>376</v>
+        <v>69</v>
       </c>
       <c r="K15" t="inlineStr">
         <is>
@@ -2477,7 +2869,7 @@
     </row>
     <row r="16">
       <c r="A16">
-        <v>114.5</v>
+        <v>144</v>
       </c>
       <c r="B16" t="inlineStr">
         <is>
@@ -2491,7 +2883,7 @@
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>Chemostat4</t>
+          <t>Chemostat2</t>
         </is>
       </c>
       <c r="E16">
@@ -2507,10 +2899,10 @@
         <v>1</v>
       </c>
       <c r="I16">
-        <v>-162</v>
+        <v>-118</v>
       </c>
       <c r="J16">
-        <v>391</v>
+        <v>406</v>
       </c>
       <c r="K16" t="inlineStr">
         <is>
@@ -2533,7 +2925,7 @@
     </row>
     <row r="17">
       <c r="A17">
-        <v>320.5</v>
+        <v>101.5</v>
       </c>
       <c r="B17" t="inlineStr">
         <is>
@@ -2542,12 +2934,12 @@
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>Chemostat1</t>
+          <t>Batch3</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>Chemostat2</t>
+          <t>Chemostat3</t>
         </is>
       </c>
       <c r="E17">
@@ -2557,16 +2949,16 @@
         <v>2</v>
       </c>
       <c r="G17">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="H17">
-        <v>0.333</v>
+        <v>1</v>
       </c>
       <c r="I17">
-        <v>303</v>
+        <v>-173</v>
       </c>
       <c r="J17">
-        <v>338</v>
+        <v>376</v>
       </c>
       <c r="K17" t="inlineStr">
         <is>
@@ -2579,7 +2971,7 @@
         </is>
       </c>
       <c r="M17">
-        <v>0.583</v>
+        <v>1</v>
       </c>
       <c r="N17" t="inlineStr">
         <is>
@@ -2589,7 +2981,7 @@
     </row>
     <row r="18">
       <c r="A18">
-        <v>278</v>
+        <v>114.5</v>
       </c>
       <c r="B18" t="inlineStr">
         <is>
@@ -2598,12 +2990,12 @@
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>Chemostat1</t>
+          <t>Batch3</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>Chemostat3</t>
+          <t>Chemostat4</t>
         </is>
       </c>
       <c r="E18">
@@ -2613,16 +3005,16 @@
         <v>2</v>
       </c>
       <c r="G18">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="H18">
-        <v>0.333</v>
+        <v>1</v>
       </c>
       <c r="I18">
-        <v>248</v>
+        <v>-162</v>
       </c>
       <c r="J18">
-        <v>308</v>
+        <v>391</v>
       </c>
       <c r="K18" t="inlineStr">
         <is>
@@ -2635,7 +3027,7 @@
         </is>
       </c>
       <c r="M18">
-        <v>0.583</v>
+        <v>1</v>
       </c>
       <c r="N18" t="inlineStr">
         <is>
@@ -2645,7 +3037,7 @@
     </row>
     <row r="19">
       <c r="A19">
-        <v>291</v>
+        <v>-664</v>
       </c>
       <c r="B19" t="inlineStr">
         <is>
@@ -2654,12 +3046,12 @@
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>Chemostat1</t>
+          <t>Batch3</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>Chemostat4</t>
+          <t>Inoculum</t>
         </is>
       </c>
       <c r="E19">
@@ -2669,16 +3061,16 @@
         <v>2</v>
       </c>
       <c r="G19">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="H19">
         <v>0.333</v>
       </c>
       <c r="I19">
-        <v>259</v>
+        <v>-942</v>
       </c>
       <c r="J19">
-        <v>323</v>
+        <v>-386</v>
       </c>
       <c r="K19" t="inlineStr">
         <is>
@@ -2691,7 +3083,7 @@
         </is>
       </c>
       <c r="M19">
-        <v>0.583</v>
+        <v>0.491</v>
       </c>
       <c r="N19" t="inlineStr">
         <is>
@@ -2701,7 +3093,7 @@
     </row>
     <row r="20">
       <c r="A20">
-        <v>-42.5</v>
+        <v>320.5</v>
       </c>
       <c r="B20" t="inlineStr">
         <is>
@@ -2710,14 +3102,14 @@
       </c>
       <c r="C20" t="inlineStr">
         <is>
+          <t>Chemostat1</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
           <t>Chemostat2</t>
         </is>
       </c>
-      <c r="D20" t="inlineStr">
-        <is>
-          <t>Chemostat3</t>
-        </is>
-      </c>
       <c r="E20">
         <v>2</v>
       </c>
@@ -2725,16 +3117,16 @@
         <v>2</v>
       </c>
       <c r="G20">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="H20">
-        <v>0.667</v>
+        <v>0.333</v>
       </c>
       <c r="I20">
-        <v>-89</v>
+        <v>303</v>
       </c>
       <c r="J20">
-        <v>4</v>
+        <v>338</v>
       </c>
       <c r="K20" t="inlineStr">
         <is>
@@ -2747,7 +3139,7 @@
         </is>
       </c>
       <c r="M20">
-        <v>0.9340000000000001</v>
+        <v>0.491</v>
       </c>
       <c r="N20" t="inlineStr">
         <is>
@@ -2757,7 +3149,7 @@
     </row>
     <row r="21">
       <c r="A21">
-        <v>-29.5</v>
+        <v>278</v>
       </c>
       <c r="B21" t="inlineStr">
         <is>
@@ -2766,12 +3158,12 @@
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>Chemostat2</t>
+          <t>Chemostat1</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>Chemostat4</t>
+          <t>Chemostat3</t>
         </is>
       </c>
       <c r="E21">
@@ -2781,16 +3173,16 @@
         <v>2</v>
       </c>
       <c r="G21">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="H21">
-        <v>0.667</v>
+        <v>0.333</v>
       </c>
       <c r="I21">
-        <v>-78</v>
+        <v>248</v>
       </c>
       <c r="J21">
-        <v>19</v>
+        <v>308</v>
       </c>
       <c r="K21" t="inlineStr">
         <is>
@@ -2803,7 +3195,7 @@
         </is>
       </c>
       <c r="M21">
-        <v>0.9340000000000001</v>
+        <v>0.491</v>
       </c>
       <c r="N21" t="inlineStr">
         <is>
@@ -2813,55 +3205,447 @@
     </row>
     <row r="22">
       <c r="A22">
+        <v>291</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>Abundance</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>Chemostat1</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>Chemostat4</t>
+        </is>
+      </c>
+      <c r="E22">
+        <v>2</v>
+      </c>
+      <c r="F22">
+        <v>2</v>
+      </c>
+      <c r="G22">
+        <v>4</v>
+      </c>
+      <c r="H22">
+        <v>0.333</v>
+      </c>
+      <c r="I22">
+        <v>259</v>
+      </c>
+      <c r="J22">
+        <v>323</v>
+      </c>
+      <c r="K22" t="inlineStr">
+        <is>
+          <t>Wilcoxon</t>
+        </is>
+      </c>
+      <c r="L22" t="inlineStr">
+        <is>
+          <t>two.sided</t>
+        </is>
+      </c>
+      <c r="M22">
+        <v>0.491</v>
+      </c>
+      <c r="N22" t="inlineStr">
+        <is>
+          <t>ns</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23">
+        <v>-487.5</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>Abundance</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>Chemostat1</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>Inoculum</t>
+        </is>
+      </c>
+      <c r="E23">
+        <v>2</v>
+      </c>
+      <c r="F23">
+        <v>2</v>
+      </c>
+      <c r="G23">
+        <v>0</v>
+      </c>
+      <c r="H23">
+        <v>0.333</v>
+      </c>
+      <c r="I23">
+        <v>-521</v>
+      </c>
+      <c r="J23">
+        <v>-454</v>
+      </c>
+      <c r="K23" t="inlineStr">
+        <is>
+          <t>Wilcoxon</t>
+        </is>
+      </c>
+      <c r="L23" t="inlineStr">
+        <is>
+          <t>two.sided</t>
+        </is>
+      </c>
+      <c r="M23">
+        <v>0.491</v>
+      </c>
+      <c r="N23" t="inlineStr">
+        <is>
+          <t>ns</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24">
+        <v>-42.5</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>Abundance</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>Chemostat2</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>Chemostat3</t>
+        </is>
+      </c>
+      <c r="E24">
+        <v>2</v>
+      </c>
+      <c r="F24">
+        <v>2</v>
+      </c>
+      <c r="G24">
+        <v>1</v>
+      </c>
+      <c r="H24">
+        <v>0.667</v>
+      </c>
+      <c r="I24">
+        <v>-89</v>
+      </c>
+      <c r="J24">
+        <v>4</v>
+      </c>
+      <c r="K24" t="inlineStr">
+        <is>
+          <t>Wilcoxon</t>
+        </is>
+      </c>
+      <c r="L24" t="inlineStr">
+        <is>
+          <t>two.sided</t>
+        </is>
+      </c>
+      <c r="M24">
+        <v>0.849</v>
+      </c>
+      <c r="N24" t="inlineStr">
+        <is>
+          <t>ns</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25">
+        <v>-29.5</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>Abundance</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>Chemostat2</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>Chemostat4</t>
+        </is>
+      </c>
+      <c r="E25">
+        <v>2</v>
+      </c>
+      <c r="F25">
+        <v>2</v>
+      </c>
+      <c r="G25">
+        <v>1</v>
+      </c>
+      <c r="H25">
+        <v>0.667</v>
+      </c>
+      <c r="I25">
+        <v>-78</v>
+      </c>
+      <c r="J25">
+        <v>19</v>
+      </c>
+      <c r="K25" t="inlineStr">
+        <is>
+          <t>Wilcoxon</t>
+        </is>
+      </c>
+      <c r="L25" t="inlineStr">
+        <is>
+          <t>two.sided</t>
+        </is>
+      </c>
+      <c r="M25">
+        <v>0.849</v>
+      </c>
+      <c r="N25" t="inlineStr">
+        <is>
+          <t>ns</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26">
+        <v>-808</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>Abundance</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>Chemostat2</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>Inoculum</t>
+        </is>
+      </c>
+      <c r="E26">
+        <v>2</v>
+      </c>
+      <c r="F26">
+        <v>2</v>
+      </c>
+      <c r="G26">
+        <v>0</v>
+      </c>
+      <c r="H26">
+        <v>0.333</v>
+      </c>
+      <c r="I26">
+        <v>-858</v>
+      </c>
+      <c r="J26">
+        <v>-758</v>
+      </c>
+      <c r="K26" t="inlineStr">
+        <is>
+          <t>Wilcoxon</t>
+        </is>
+      </c>
+      <c r="L26" t="inlineStr">
+        <is>
+          <t>two.sided</t>
+        </is>
+      </c>
+      <c r="M26">
+        <v>0.491</v>
+      </c>
+      <c r="N26" t="inlineStr">
+        <is>
+          <t>ns</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27">
         <v>13</v>
       </c>
-      <c r="B22" t="inlineStr">
-        <is>
-          <t>Abundance</t>
-        </is>
-      </c>
-      <c r="C22" t="inlineStr">
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>Abundance</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
         <is>
           <t>Chemostat3</t>
         </is>
       </c>
-      <c r="D22" t="inlineStr">
+      <c r="D27" t="inlineStr">
         <is>
           <t>Chemostat4</t>
         </is>
       </c>
-      <c r="E22">
-        <v>2</v>
-      </c>
-      <c r="F22">
-        <v>2</v>
-      </c>
-      <c r="G22">
+      <c r="E27">
+        <v>2</v>
+      </c>
+      <c r="F27">
+        <v>2</v>
+      </c>
+      <c r="G27">
         <v>3</v>
       </c>
-      <c r="H22">
+      <c r="H27">
         <v>0.667</v>
       </c>
-      <c r="I22">
+      <c r="I27">
         <v>-48</v>
       </c>
-      <c r="J22">
+      <c r="J27">
         <v>74</v>
       </c>
-      <c r="K22" t="inlineStr">
-        <is>
-          <t>Wilcoxon</t>
-        </is>
-      </c>
-      <c r="L22" t="inlineStr">
-        <is>
-          <t>two.sided</t>
-        </is>
-      </c>
-      <c r="M22">
-        <v>0.9340000000000001</v>
-      </c>
-      <c r="N22" t="inlineStr">
+      <c r="K27" t="inlineStr">
+        <is>
+          <t>Wilcoxon</t>
+        </is>
+      </c>
+      <c r="L27" t="inlineStr">
+        <is>
+          <t>two.sided</t>
+        </is>
+      </c>
+      <c r="M27">
+        <v>0.849</v>
+      </c>
+      <c r="N27" t="inlineStr">
+        <is>
+          <t>ns</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28">
+        <v>-765.5</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>Abundance</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>Chemostat3</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>Inoculum</t>
+        </is>
+      </c>
+      <c r="E28">
+        <v>2</v>
+      </c>
+      <c r="F28">
+        <v>2</v>
+      </c>
+      <c r="G28">
+        <v>0</v>
+      </c>
+      <c r="H28">
+        <v>0.333</v>
+      </c>
+      <c r="I28">
+        <v>-828</v>
+      </c>
+      <c r="J28">
+        <v>-703</v>
+      </c>
+      <c r="K28" t="inlineStr">
+        <is>
+          <t>Wilcoxon</t>
+        </is>
+      </c>
+      <c r="L28" t="inlineStr">
+        <is>
+          <t>two.sided</t>
+        </is>
+      </c>
+      <c r="M28">
+        <v>0.491</v>
+      </c>
+      <c r="N28" t="inlineStr">
+        <is>
+          <t>ns</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29">
+        <v>-778.5</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>Abundance</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>Chemostat4</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>Inoculum</t>
+        </is>
+      </c>
+      <c r="E29">
+        <v>2</v>
+      </c>
+      <c r="F29">
+        <v>2</v>
+      </c>
+      <c r="G29">
+        <v>0</v>
+      </c>
+      <c r="H29">
+        <v>0.333</v>
+      </c>
+      <c r="I29">
+        <v>-843</v>
+      </c>
+      <c r="J29">
+        <v>-714</v>
+      </c>
+      <c r="K29" t="inlineStr">
+        <is>
+          <t>Wilcoxon</t>
+        </is>
+      </c>
+      <c r="L29" t="inlineStr">
+        <is>
+          <t>two.sided</t>
+        </is>
+      </c>
+      <c r="M29">
+        <v>0.491</v>
+      </c>
+      <c r="N29" t="inlineStr">
         <is>
           <t>ns</t>
         </is>
